--- a/master_4moyr1_4_11yr2_structure_behavior_data.xlsx
+++ b/master_4moyr1_4_11yr2_structure_behavior_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitchtho\Documents\behavior_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lplab\Documents\behavior_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10785" windowHeight="5805" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10790" windowHeight="5810" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="4mo_yr2combined" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="difference_4moyr2_11moyr2" sheetId="6" r:id="rId5"/>
     <sheet name="yr1_yr2_4mo_combined" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="248">
   <si>
     <t>ZInspect_Object</t>
   </si>
@@ -677,12 +677,108 @@
   </si>
   <si>
     <t>subj_id+N9F11A1:N6A1:CJ22</t>
+  </si>
+  <si>
+    <t>ZStationary_Back_temperament</t>
+  </si>
+  <si>
+    <t>ZStationary_Front_temperament</t>
+  </si>
+  <si>
+    <t>ZStationary_Middle_temperament</t>
+  </si>
+  <si>
+    <t>ZMovement_temperament</t>
+  </si>
+  <si>
+    <t>ZLocomotion_temperament</t>
+  </si>
+  <si>
+    <t>ZOral_Exploration_temperament</t>
+  </si>
+  <si>
+    <t>ZTactile_Exploration_temperament</t>
+  </si>
+  <si>
+    <t>ZCrouching_temperament</t>
+  </si>
+  <si>
+    <t>ZHanging_temperament</t>
+  </si>
+  <si>
+    <t>ZSelf_Groom_temperament</t>
+  </si>
+  <si>
+    <t>ZScratch_temperament</t>
+  </si>
+  <si>
+    <t>ZYawn_temperament</t>
+  </si>
+  <si>
+    <t>ZCoo_temperament</t>
+  </si>
+  <si>
+    <t>ZShriek_temperament</t>
+  </si>
+  <si>
+    <t>ZChirp_temperament</t>
+  </si>
+  <si>
+    <t>ZGrunt_temperament</t>
+  </si>
+  <si>
+    <t>ZBark_temperament</t>
+  </si>
+  <si>
+    <t>ZCage_Shake_temperament</t>
+  </si>
+  <si>
+    <t>ZCrooktail_temperament</t>
+  </si>
+  <si>
+    <t>ZFreezing_temperament</t>
+  </si>
+  <si>
+    <t>ZNo_Response_temperament</t>
+  </si>
+  <si>
+    <t>ZLipsmack_temperament</t>
+  </si>
+  <si>
+    <t>ZTeeth_Grind_temperament</t>
+  </si>
+  <si>
+    <t>ZThreat_Stranger_temperament</t>
+  </si>
+  <si>
+    <t>ZFear_Grimmace_temperament</t>
+  </si>
+  <si>
+    <t>ZVigilance_temperament</t>
+  </si>
+  <si>
+    <t>ZNonvigilance_temperament</t>
+  </si>
+  <si>
+    <t>ZDirect_Eye_Contact_temperament</t>
+  </si>
+  <si>
+    <t>ZInspect_Snake_temperament</t>
+  </si>
+  <si>
+    <t>ZInteract_Snake_temperament</t>
+  </si>
+  <si>
+    <t>ZInteract_Familiar_Food_temperament</t>
+  </si>
+  <si>
+    <t>ZInteract_Novel_Food_temperament</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -814,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -887,6 +983,8 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,52 +1274,52 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="32" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>72</v>
       </c>
@@ -1442,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>35331</v>
       </c>
@@ -1665,7 +1763,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
         <v>35408</v>
       </c>
@@ -1798,7 +1896,7 @@
         <v>2.9016208577754199</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>35435</v>
       </c>
@@ -2021,7 +2119,7 @@
         <v>3.5178926698828086</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>35444</v>
       </c>
@@ -2244,7 +2342,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>35455</v>
       </c>
@@ -2467,7 +2565,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>35476</v>
       </c>
@@ -2690,7 +2788,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>35505</v>
       </c>
@@ -2913,7 +3011,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>35600</v>
       </c>
@@ -3136,7 +3234,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>35624</v>
       </c>
@@ -3359,7 +3457,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>35712</v>
       </c>
@@ -3582,7 +3680,7 @@
         <v>2.4039057629080394</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>35716</v>
       </c>
@@ -3805,7 +3903,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>35375</v>
       </c>
@@ -4041,152 +4139,152 @@
       <selection sqref="A1:EP13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.1796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="33" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="24" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="12" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="12" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="32" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="20" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="25" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="97" max="98" width="22" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="24" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="43.1796875" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="27" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="116" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="115" max="116" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="17" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="22" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="29" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="138" max="139" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="139" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>215</v>
       </c>
@@ -4626,7 +4724,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>35331</v>
       </c>
@@ -4976,7 +5074,7 @@
         <v>3.1619673789918701</v>
       </c>
     </row>
-    <row r="3" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
         <v>35408</v>
       </c>
@@ -5326,7 +5424,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>35435</v>
       </c>
@@ -5766,7 +5864,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>35444</v>
       </c>
@@ -6206,7 +6304,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>35455</v>
       </c>
@@ -6646,7 +6744,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>35476</v>
       </c>
@@ -7086,7 +7184,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>35505</v>
       </c>
@@ -7436,7 +7534,7 @@
         <v>1.9403346708366001</v>
       </c>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>35600</v>
       </c>
@@ -7876,7 +7974,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>35624</v>
       </c>
@@ -8316,7 +8414,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="11" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>35712</v>
       </c>
@@ -8756,7 +8854,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="12" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>35716</v>
       </c>
@@ -8977,7 +9075,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="13" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>35375</v>
       </c>
@@ -9211,146 +9309,146 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="41.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="33" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.26953125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="24" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="32" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="20" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="25" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="63" max="64" width="22" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="24" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="43.1796875" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="27" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="82" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="25" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="93" max="94" width="22" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="24" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="43.1796875" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="27" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="111" max="112" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="17" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="22" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="29" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="134" max="135" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="135" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -9598,7 +9696,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>87771.037500000006</v>
       </c>
@@ -9846,7 +9944,7 @@
         <v>3.1619673789918701</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>78393.431249999994</v>
       </c>
@@ -10094,7 +10192,7 @@
         <v>2.1294569690877698</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>93999.487500000003</v>
       </c>
@@ -10342,7 +10440,7 @@
         <v>2.6809209180432698</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>80652.037500000006</v>
       </c>
@@ -10590,7 +10688,7 @@
         <v>3.1396031938865598</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>97573.893750000003</v>
       </c>
@@ -10838,7 +10936,7 @@
         <v>2.9214938913439599</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>87182.15625</v>
       </c>
@@ -11086,7 +11184,7 @@
         <v>3.0293246776233498</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>86461.425000000003</v>
       </c>
@@ -11334,7 +11432,7 @@
         <v>1.9403346708366001</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>85092.46875</v>
       </c>
@@ -11582,7 +11680,7 @@
         <v>2.2872457761456202</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>77118.975000000006</v>
       </c>
@@ -11830,7 +11928,7 @@
         <v>2.3299983803084499</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>90272.925000000003</v>
       </c>
@@ -12087,13 +12185,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+    <sheetView topLeftCell="BC1" workbookViewId="0">
       <selection activeCell="BQ30" sqref="BQ30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -12533,7 +12631,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>35435</v>
       </c>
@@ -12973,7 +13071,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="3" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>35444</v>
       </c>
@@ -13413,7 +13511,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>35476</v>
       </c>
@@ -13853,7 +13951,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>35505</v>
       </c>
@@ -14293,7 +14391,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>35600</v>
       </c>
@@ -14733,7 +14831,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>35624</v>
       </c>
@@ -15173,7 +15271,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>35716</v>
       </c>
@@ -15613,7 +15711,7 @@
         <v>-0.31167360172583408</v>
       </c>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>35375</v>
       </c>
@@ -16066,7 +16164,7 @@
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16074,89 +16172,92 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU23"/>
+  <dimension ref="A1:DA23"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
-      <selection sqref="A1:BU13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="CD2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:DA23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="20" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="39.81640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="25" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="23" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="13" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:105" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -16285,98 +16386,194 @@
       <c r="AQ1" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="29" t="s">
         <v>0</v>
       </c>
+      <c r="BV1" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="BW1" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX1" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY1" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ1" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="CA1" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="CB1" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="CC1" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="CD1" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="CE1" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="CF1" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="CG1" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="CH1" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="CI1" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="CJ1" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="CK1" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="CL1" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="CM1" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="CN1" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="CO1" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="CP1" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="CQ1" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="CR1" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="CS1" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="CT1" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="CU1" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="CV1" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="CW1" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="CX1" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="CY1" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="CZ1" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="DA1" s="29" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>35331</v>
       </c>
@@ -16598,8 +16795,104 @@
       <c r="BU2">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV2">
+        <v>-0.64389282313861917</v>
+      </c>
+      <c r="BW2">
+        <v>7.4278720092570263E-2</v>
+      </c>
+      <c r="BX2">
+        <v>0.1518774452743353</v>
+      </c>
+      <c r="BY2">
+        <v>-9.8675535714488807E-3</v>
+      </c>
+      <c r="BZ2">
+        <v>-0.18299470968425549</v>
+      </c>
+      <c r="CA2">
+        <v>2.3361791853557961</v>
+      </c>
+      <c r="CB2">
+        <v>2.2550304213770738</v>
+      </c>
+      <c r="CC2">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD2">
+        <v>0.24558495001026778</v>
+      </c>
+      <c r="CE2">
+        <v>0.18346712590368272</v>
+      </c>
+      <c r="CF2">
+        <v>-0.49337450613314437</v>
+      </c>
+      <c r="CG2">
+        <v>-0.90436532992880814</v>
+      </c>
+      <c r="CH2">
+        <v>-0.4839760319082626</v>
+      </c>
+      <c r="CI2">
+        <v>-0.37373665083335894</v>
+      </c>
+      <c r="CJ2">
+        <v>0.5681878899748638</v>
+      </c>
+      <c r="CK2">
+        <v>-0.56491086561495996</v>
+      </c>
+      <c r="CL2">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM2">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN2">
+        <v>-0.51445089123803545</v>
+      </c>
+      <c r="CO2">
+        <v>0.86815312917755993</v>
+      </c>
+      <c r="CP2">
+        <v>0.97291334420187159</v>
+      </c>
+      <c r="CQ2">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR2">
+        <v>-0.99081968099748552</v>
+      </c>
+      <c r="CS2">
+        <v>-0.60401643833843477</v>
+      </c>
+      <c r="CT2">
+        <v>3.2607093640854989</v>
+      </c>
+      <c r="CU2">
+        <v>0.71143652044507188</v>
+      </c>
+      <c r="CV2">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW2">
+        <v>-0.96200629045151387</v>
+      </c>
+      <c r="CX2">
+        <v>0.61889746903828013</v>
+      </c>
+      <c r="CY2">
+        <v>-0.50586087253434786</v>
+      </c>
+      <c r="CZ2">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA2">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A3" s="21">
         <v>35408</v>
       </c>
@@ -16731,8 +17024,104 @@
       <c r="AQ3" s="8">
         <v>2.9016208577754199</v>
       </c>
+      <c r="BV3">
+        <v>0.44399120019165128</v>
+      </c>
+      <c r="BW3">
+        <v>-0.96014280814892272</v>
+      </c>
+      <c r="BX3">
+        <v>1.3952494823587456</v>
+      </c>
+      <c r="BY3">
+        <v>-0.70310758517638161</v>
+      </c>
+      <c r="BZ3">
+        <v>6.5168848545713462E-2</v>
+      </c>
+      <c r="CA3">
+        <v>0.8341975162264561</v>
+      </c>
+      <c r="CB3">
+        <v>-0.24174941520479343</v>
+      </c>
+      <c r="CC3">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD3">
+        <v>-0.56300928478985701</v>
+      </c>
+      <c r="CE3">
+        <v>2.7536910495659948</v>
+      </c>
+      <c r="CF3">
+        <v>1.956485110527987</v>
+      </c>
+      <c r="CG3">
+        <v>1.1214130091117218</v>
+      </c>
+      <c r="CH3">
+        <v>0.20136947817953221</v>
+      </c>
+      <c r="CI3">
+        <v>-0.37373665083335894</v>
+      </c>
+      <c r="CJ3">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK3">
+        <v>-0.13837142551018114</v>
+      </c>
+      <c r="CL3">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM3">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN3">
+        <v>-0.51445089123803545</v>
+      </c>
+      <c r="CO3">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP3">
+        <v>-0.9355205012452652</v>
+      </c>
+      <c r="CQ3">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR3">
+        <v>-0.13356526439368233</v>
+      </c>
+      <c r="CS3">
+        <v>-0.60401643833843477</v>
+      </c>
+      <c r="CT3">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU3">
+        <v>0.72942261378674245</v>
+      </c>
+      <c r="CV3">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW3">
+        <v>-1.0874862853638965</v>
+      </c>
+      <c r="CX3">
+        <v>-0.82528122767418399</v>
+      </c>
+      <c r="CY3">
+        <v>-0.50586087253434786</v>
+      </c>
+      <c r="CZ3">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA3">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>35435</v>
       </c>
@@ -16954,8 +17343,104 @@
       <c r="BU4">
         <v>3.5178926698828086</v>
       </c>
+      <c r="BV4">
+        <v>2.8888131428256858</v>
+      </c>
+      <c r="BW4">
+        <v>-1.5164256240640657</v>
+      </c>
+      <c r="BX4">
+        <v>-6.8683941137237609E-2</v>
+      </c>
+      <c r="BY4">
+        <v>-0.49496582715853082</v>
+      </c>
+      <c r="BZ4">
+        <v>-0.74344482406511536</v>
+      </c>
+      <c r="CA4">
+        <v>-8.1943309192756539E-2</v>
+      </c>
+      <c r="CB4">
+        <v>0.17035707648569959</v>
+      </c>
+      <c r="CC4">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD4">
+        <v>0.47146471409303137</v>
+      </c>
+      <c r="CE4">
+        <v>3.0748152478347235</v>
+      </c>
+      <c r="CF4">
+        <v>-0.69752947418823863</v>
+      </c>
+      <c r="CG4">
+        <v>-0.90436532992880814</v>
+      </c>
+      <c r="CH4">
+        <v>0.17773687438340136</v>
+      </c>
+      <c r="CI4">
+        <v>-0.3431234098094661</v>
+      </c>
+      <c r="CJ4">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK4">
+        <v>-0.50397665988570584</v>
+      </c>
+      <c r="CL4">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM4">
+        <v>0.30577104990392678</v>
+      </c>
+      <c r="CN4">
+        <v>-0.51445089123803545</v>
+      </c>
+      <c r="CO4">
+        <v>4.4346352723980953</v>
+      </c>
+      <c r="CP4">
+        <v>0.96146593809756209</v>
+      </c>
+      <c r="CQ4">
+        <v>-0.37266380394149556</v>
+      </c>
+      <c r="CR4">
+        <v>-0.27179090811835477</v>
+      </c>
+      <c r="CS4">
+        <v>-0.60401643833843477</v>
+      </c>
+      <c r="CT4">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU4">
+        <v>0.55412398282522468</v>
+      </c>
+      <c r="CV4">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW4">
+        <v>0.12479945303869004</v>
+      </c>
+      <c r="CX4">
+        <v>-0.51172231081892905</v>
+      </c>
+      <c r="CY4">
+        <v>-0.36472061282036239</v>
+      </c>
+      <c r="CZ4">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA4">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>35444</v>
       </c>
@@ -17177,8 +17662,104 @@
       <c r="BU5">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV5">
+        <v>-0.58750091076706856</v>
+      </c>
+      <c r="BW5">
+        <v>-0.98411815526280766</v>
+      </c>
+      <c r="BX5">
+        <v>0.51121723487498361</v>
+      </c>
+      <c r="BY5">
+        <v>-0.42264650634691359</v>
+      </c>
+      <c r="BZ5">
+        <v>4.3391792411181643E-2</v>
+      </c>
+      <c r="CA5">
+        <v>7.2299621119231369E-2</v>
+      </c>
+      <c r="CB5">
+        <v>0.14536411865489701</v>
+      </c>
+      <c r="CC5">
+        <v>4.2537438386111495</v>
+      </c>
+      <c r="CD5">
+        <v>-0.56300928478985701</v>
+      </c>
+      <c r="CE5">
+        <v>0.60430641451298306</v>
+      </c>
+      <c r="CF5">
+        <v>-0.49337450613314437</v>
+      </c>
+      <c r="CG5">
+        <v>-3.6174613197152448E-2</v>
+      </c>
+      <c r="CH5">
+        <v>-0.96844440972894508</v>
+      </c>
+      <c r="CI5">
+        <v>-0.3431234098094661</v>
+      </c>
+      <c r="CJ5">
+        <v>-0.25549388341151585</v>
+      </c>
+      <c r="CK5">
+        <v>-0.1688385283748082</v>
+      </c>
+      <c r="CL5">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM5">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN5">
+        <v>1.0040177493344318</v>
+      </c>
+      <c r="CO5">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP5">
+        <v>0.72841471374602107</v>
+      </c>
+      <c r="CQ5">
+        <v>2.0304554860369093</v>
+      </c>
+      <c r="CR5">
+        <v>-0.60190566463834938</v>
+      </c>
+      <c r="CS5">
+        <v>-0.60401643833843477</v>
+      </c>
+      <c r="CT5">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU5">
+        <v>0.45170742173167994</v>
+      </c>
+      <c r="CV5">
+        <v>0.19858678398793717</v>
+      </c>
+      <c r="CW5">
+        <v>0.40523123182037402</v>
+      </c>
+      <c r="CX5">
+        <v>2.2357482552396397</v>
+      </c>
+      <c r="CY5">
+        <v>-0.50586087253434786</v>
+      </c>
+      <c r="CZ5">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA5">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>35455</v>
       </c>
@@ -17400,8 +17981,104 @@
       <c r="BU6">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV6">
+        <v>-0.1397918215038117</v>
+      </c>
+      <c r="BW6">
+        <v>-0.77578485216007331</v>
+      </c>
+      <c r="BX6">
+        <v>-0.80230090130625087</v>
+      </c>
+      <c r="BY6">
+        <v>-0.67585488169090613</v>
+      </c>
+      <c r="BZ6">
+        <v>1.9237701116842421</v>
+      </c>
+      <c r="CA6">
+        <v>-2.2090240590875099E-2</v>
+      </c>
+      <c r="CB6">
+        <v>-0.47186475373630854</v>
+      </c>
+      <c r="CC6">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD6">
+        <v>-0.44330869357951219</v>
+      </c>
+      <c r="CE6">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF6">
+        <v>-0.69752947418823863</v>
+      </c>
+      <c r="CG6">
+        <v>-0.6149684243515896</v>
+      </c>
+      <c r="CH6">
+        <v>0.37861400665051365</v>
+      </c>
+      <c r="CI6">
+        <v>-0.28189692776168035</v>
+      </c>
+      <c r="CJ6">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK6">
+        <v>-0.44304245415645171</v>
+      </c>
+      <c r="CL6">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM6">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN6">
+        <v>-0.15146294034436034</v>
+      </c>
+      <c r="CO6">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP6">
+        <v>1.1764646473972598</v>
+      </c>
+      <c r="CQ6">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR6">
+        <v>-0.88900131874594512</v>
+      </c>
+      <c r="CS6">
+        <v>-0.15533943952402776</v>
+      </c>
+      <c r="CT6">
+        <v>-9.8512254378861935E-2</v>
+      </c>
+      <c r="CU6">
+        <v>0.50405687970328672</v>
+      </c>
+      <c r="CV6">
+        <v>2.4224377593588664</v>
+      </c>
+      <c r="CW6">
+        <v>-1.0672701498401838</v>
+      </c>
+      <c r="CX6">
+        <v>-0.15004819908188871</v>
+      </c>
+      <c r="CY6">
+        <v>-0.35380225201142501</v>
+      </c>
+      <c r="CZ6">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA6">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>35476</v>
       </c>
@@ -17623,8 +18300,104 @@
       <c r="BU7">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV7">
+        <v>-0.81022165475752528</v>
+      </c>
+      <c r="BW7">
+        <v>1.2384879380173877</v>
+      </c>
+      <c r="BX7">
+        <v>-0.49775868613267826</v>
+      </c>
+      <c r="BY7">
+        <v>-0.16713222524555793</v>
+      </c>
+      <c r="BZ7">
+        <v>-0.18676309479262884</v>
+      </c>
+      <c r="CA7">
+        <v>-0.18898720974803285</v>
+      </c>
+      <c r="CB7">
+        <v>2.3384289185646097</v>
+      </c>
+      <c r="CC7">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD7">
+        <v>-0.56300928478985701</v>
+      </c>
+      <c r="CE7">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF7">
+        <v>1.956485110527987</v>
+      </c>
+      <c r="CG7">
+        <v>0.83201610353450317</v>
+      </c>
+      <c r="CH7">
+        <v>-0.35399671102954289</v>
+      </c>
+      <c r="CI7">
+        <v>-0.28189692776168035</v>
+      </c>
+      <c r="CJ7">
+        <v>4.4120361657779688</v>
+      </c>
+      <c r="CK7">
+        <v>2.3294639065246106</v>
+      </c>
+      <c r="CL7">
+        <v>0.22444563351821153</v>
+      </c>
+      <c r="CM7">
+        <v>2.1403973493274866</v>
+      </c>
+      <c r="CN7">
+        <v>-0.43406734994269508</v>
+      </c>
+      <c r="CO7">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP7">
+        <v>0.10988914115474664</v>
+      </c>
+      <c r="CQ7">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR7">
+        <v>0.832983876026689</v>
+      </c>
+      <c r="CS7">
+        <v>1.6275159801024728</v>
+      </c>
+      <c r="CT7">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU7">
+        <v>0.39855761472844997</v>
+      </c>
+      <c r="CV7">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW7">
+        <v>1.1879984467192357</v>
+      </c>
+      <c r="CX7">
+        <v>0.75693432807420968</v>
+      </c>
+      <c r="CY7">
+        <v>-0.50586087253434786</v>
+      </c>
+      <c r="CZ7">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA7">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>35505</v>
       </c>
@@ -17846,8 +18619,104 @@
       <c r="BU8">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV8">
+        <v>-0.90877000928281948</v>
+      </c>
+      <c r="BW8">
+        <v>1.2048413909366</v>
+      </c>
+      <c r="BX8">
+        <v>0.77020382880660165</v>
+      </c>
+      <c r="BY8">
+        <v>2.8300634112873455</v>
+      </c>
+      <c r="BZ8">
+        <v>-0.83319459736430412</v>
+      </c>
+      <c r="CA8">
+        <v>-0.88106902959845745</v>
+      </c>
+      <c r="CB8">
+        <v>-0.33291547237378094</v>
+      </c>
+      <c r="CC8">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD8">
+        <v>-0.26983003234787156</v>
+      </c>
+      <c r="CE8">
+        <v>-5.418590268252204E-2</v>
+      </c>
+      <c r="CF8">
+        <v>-0.28921953807805012</v>
+      </c>
+      <c r="CG8">
+        <v>-0.6149684243515896</v>
+      </c>
+      <c r="CH8">
+        <v>-0.80301618315602918</v>
+      </c>
+      <c r="CI8">
+        <v>-0.1900572046900017</v>
+      </c>
+      <c r="CJ8">
+        <v>0.93426867814658798</v>
+      </c>
+      <c r="CK8">
+        <v>1.7505889520966964</v>
+      </c>
+      <c r="CL8">
+        <v>2.7106126509507105</v>
+      </c>
+      <c r="CM8">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN8">
+        <v>1.6952016645613552</v>
+      </c>
+      <c r="CO8">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP8">
+        <v>-1.1157968565094769</v>
+      </c>
+      <c r="CQ8">
+        <v>-2.6512150048532909E-2</v>
+      </c>
+      <c r="CR8">
+        <v>0.51419023933581376</v>
+      </c>
+      <c r="CS8">
+        <v>-0.60401643833843477</v>
+      </c>
+      <c r="CT8">
+        <v>0.93397876375861089</v>
+      </c>
+      <c r="CU8">
+        <v>0.70582899314999514</v>
+      </c>
+      <c r="CV8">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW8">
+        <v>-0.92065116639633304</v>
+      </c>
+      <c r="CX8">
+        <v>-0.41734288537767028</v>
+      </c>
+      <c r="CY8">
+        <v>0.92706441099053571</v>
+      </c>
+      <c r="CZ8">
+        <v>1.6575797347823602</v>
+      </c>
+      <c r="DA8">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>35600</v>
       </c>
@@ -18069,8 +18938,104 @@
       <c r="BU9">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV9">
+        <v>0.28661530616053593</v>
+      </c>
+      <c r="BW9">
+        <v>-1.194635335857535</v>
+      </c>
+      <c r="BX9">
+        <v>-0.55821664242345381</v>
+      </c>
+      <c r="BY9">
+        <v>-0.71014362122825536</v>
+      </c>
+      <c r="BZ9">
+        <v>-3.1353241105440487E-2</v>
+      </c>
+      <c r="CA9">
+        <v>0.4355464726394766</v>
+      </c>
+      <c r="CB9">
+        <v>0.52415901147439936</v>
+      </c>
+      <c r="CC9">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD9">
+        <v>3.6866888416245782</v>
+      </c>
+      <c r="CE9">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF9">
+        <v>-0.69752947418823863</v>
+      </c>
+      <c r="CG9">
+        <v>-0.6149684243515896</v>
+      </c>
+      <c r="CH9">
+        <v>-0.94481180593281422</v>
+      </c>
+      <c r="CI9">
+        <v>-0.37373665083335894</v>
+      </c>
+      <c r="CJ9">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK9">
+        <v>-0.8391147913966035</v>
+      </c>
+      <c r="CL9">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM9">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN9">
+        <v>-0.51445089123803545</v>
+      </c>
+      <c r="CO9">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP9">
+        <v>0.9030268571044765</v>
+      </c>
+      <c r="CQ9">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR9">
+        <v>-0.3228343069696395</v>
+      </c>
+      <c r="CS9">
+        <v>-0.20698577259430226</v>
+      </c>
+      <c r="CT9">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU9">
+        <v>0.58260205253752984</v>
+      </c>
+      <c r="CV9">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW9">
+        <v>-7.7768125733583368E-2</v>
+      </c>
+      <c r="CX9">
+        <v>-0.82528122767418399</v>
+      </c>
+      <c r="CY9">
+        <v>-0.31586036384665456</v>
+      </c>
+      <c r="CZ9">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA9">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>35624</v>
       </c>
@@ -18292,8 +19257,104 @@
       <c r="BU10">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV10">
+        <v>0.20650144934784057</v>
+      </c>
+      <c r="BW10">
+        <v>-1.6561923014905922</v>
+      </c>
+      <c r="BX10">
+        <v>-0.47612296643117985</v>
+      </c>
+      <c r="BY10">
+        <v>-0.89368496355948246</v>
+      </c>
+      <c r="BZ10">
+        <v>2.4872458945185185</v>
+      </c>
+      <c r="CA10">
+        <v>-8.1689005973135942E-2</v>
+      </c>
+      <c r="CB10">
+        <v>-0.99637389966801149</v>
+      </c>
+      <c r="CC10">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD10">
+        <v>-0.48257779466075745</v>
+      </c>
+      <c r="CE10">
+        <v>7.7424536855278475E-2</v>
+      </c>
+      <c r="CF10">
+        <v>-8.5064570022955824E-2</v>
+      </c>
+      <c r="CG10">
+        <v>0.25322229238006611</v>
+      </c>
+      <c r="CH10">
+        <v>-1.132395598564548E-2</v>
+      </c>
+      <c r="CI10">
+        <v>-0.3431234098094661</v>
+      </c>
+      <c r="CJ10">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK10">
+        <v>0.28816801459459768</v>
+      </c>
+      <c r="CL10">
+        <v>0.63880680309029469</v>
+      </c>
+      <c r="CM10">
+        <v>1.2230841996157067</v>
+      </c>
+      <c r="CN10">
+        <v>3.7519219011742253</v>
+      </c>
+      <c r="CO10">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP10">
+        <v>0.87533310062326097</v>
+      </c>
+      <c r="CQ10">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR10">
+        <v>-3.581909995807929E-2</v>
+      </c>
+      <c r="CS10">
+        <v>-0.24847935755630088</v>
+      </c>
+      <c r="CT10">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU10">
+        <v>0.35274306517543286</v>
+      </c>
+      <c r="CV10">
+        <v>0.73141177481826058</v>
+      </c>
+      <c r="CW10">
+        <v>0.82621743455582919</v>
+      </c>
+      <c r="CX10">
+        <v>-0.10880587571240988</v>
+      </c>
+      <c r="CY10">
+        <v>-0.50586087253434786</v>
+      </c>
+      <c r="CZ10">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA10">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>35712</v>
       </c>
@@ -18515,8 +19576,104 @@
       <c r="BU11">
         <v>2.4039057629080394</v>
       </c>
+      <c r="BV11">
+        <v>-0.67133758358026774</v>
+      </c>
+      <c r="BW11">
+        <v>0.39708312305950266</v>
+      </c>
+      <c r="BX11">
+        <v>-0.78088322936196219</v>
+      </c>
+      <c r="BY11">
+        <v>-0.29710893459090304</v>
+      </c>
+      <c r="BZ11">
+        <v>0.76225790039058006</v>
+      </c>
+      <c r="CA11">
+        <v>0.63536958405340138</v>
+      </c>
+      <c r="CB11">
+        <v>-0.34305728811018027</v>
+      </c>
+      <c r="CC11">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD11">
+        <v>-0.31947119443328198</v>
+      </c>
+      <c r="CE11">
+        <v>-0.18173183467132795</v>
+      </c>
+      <c r="CF11">
+        <v>-0.69752947418823863</v>
+      </c>
+      <c r="CG11">
+        <v>-3.6174613197152448E-2</v>
+      </c>
+      <c r="CH11">
+        <v>-0.50760863570439341</v>
+      </c>
+      <c r="CI11">
+        <v>-0.3431234098094661</v>
+      </c>
+      <c r="CJ11">
+        <v>0.47666769293193267</v>
+      </c>
+      <c r="CK11">
+        <v>-0.5344437627503329</v>
+      </c>
+      <c r="CL11">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM11">
+        <v>0.30577104990392678</v>
+      </c>
+      <c r="CN11">
+        <v>-0.34317859170998849</v>
+      </c>
+      <c r="CO11">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP11">
+        <v>-1.4548308446872082</v>
+      </c>
+      <c r="CQ11">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR11">
+        <v>2.9493827169311442</v>
+      </c>
+      <c r="CS11">
+        <v>2.5565767703456261</v>
+      </c>
+      <c r="CT11">
+        <v>2.9952223624518837</v>
+      </c>
+      <c r="CU11">
+        <v>0.36162362212620702</v>
+      </c>
+      <c r="CV11">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW11">
+        <v>1.4815056183508175</v>
+      </c>
+      <c r="CX11">
+        <v>-0.38734417961354367</v>
+      </c>
+      <c r="CY11">
+        <v>-0.36352688769149105</v>
+      </c>
+      <c r="CZ11">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA11">
+        <v>2.8263828896693268</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>35716</v>
       </c>
@@ -18738,8 +19895,104 @@
       <c r="BU12">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV12">
+        <v>2.934650591325028</v>
+      </c>
+      <c r="BW12">
+        <v>-1.3112034605237863</v>
+      </c>
+      <c r="BX12">
+        <v>-0.40151581045668577</v>
+      </c>
+      <c r="BY12">
+        <v>0.16625717888561359</v>
+      </c>
+      <c r="BZ12">
+        <v>-0.29813836044913922</v>
+      </c>
+      <c r="CA12">
+        <v>0.59915708289092995</v>
+      </c>
+      <c r="CB12">
+        <v>-0.15724314204561538</v>
+      </c>
+      <c r="CC12">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD12">
+        <v>-0.56300928478985701</v>
+      </c>
+      <c r="CE12">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF12">
+        <v>-0.69752947418823863</v>
+      </c>
+      <c r="CG12">
+        <v>-0.90436532992880814</v>
+      </c>
+      <c r="CH12">
+        <v>0.75673566738860731</v>
+      </c>
+      <c r="CI12">
+        <v>-0.37373665083335894</v>
+      </c>
+      <c r="CJ12">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK12">
+        <v>-0.22977273410406232</v>
+      </c>
+      <c r="CL12">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM12">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN12">
+        <v>-0.51445089123803545</v>
+      </c>
+      <c r="CO12">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP12">
+        <v>0.44983395573726087</v>
+      </c>
+      <c r="CQ12">
+        <v>2.2321263744862487</v>
+      </c>
+      <c r="CR12">
+        <v>-0.76338001493731433</v>
+      </c>
+      <c r="CS12">
+        <v>-0.45819685448341907</v>
+      </c>
+      <c r="CT12">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU12">
+        <v>0.52852932550366305</v>
+      </c>
+      <c r="CV12">
+        <v>1.0874874639508325</v>
+      </c>
+      <c r="CW12">
+        <v>-0.60395374410659153</v>
+      </c>
+      <c r="CX12">
+        <v>1.3487956903102991</v>
+      </c>
+      <c r="CY12">
+        <v>-0.50586087253434786</v>
+      </c>
+      <c r="CZ12">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA12">
+        <v>1.1861892799534768</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>35375</v>
       </c>
@@ -18961,8 +20214,104 @@
       <c r="BU13">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV13">
+        <v>-0.64995311120180022</v>
+      </c>
+      <c r="BW13">
+        <v>-9.897545587373302E-2</v>
+      </c>
+      <c r="BX13">
+        <v>-0.92674055302213521</v>
+      </c>
+      <c r="BY13">
+        <v>-0.63579709450733102</v>
+      </c>
+      <c r="BZ13">
+        <v>1.2102905879321701</v>
+      </c>
+      <c r="CA13">
+        <v>3.1625516895810009</v>
+      </c>
+      <c r="CB13">
+        <v>-0.637628951728205</v>
+      </c>
+      <c r="CC13">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD13">
+        <v>-0.49238791710110069</v>
+      </c>
+      <c r="CE13">
+        <v>-0.36178359924186598</v>
+      </c>
+      <c r="CF13">
+        <v>-0.49337450613314437</v>
+      </c>
+      <c r="CG13">
+        <v>1.4108099146889403</v>
+      </c>
+      <c r="CH13">
+        <v>-0.4012619186218046</v>
+      </c>
+      <c r="CI13">
+        <v>-0.37373665083335894</v>
+      </c>
+      <c r="CJ13">
+        <v>-0.25549388341151585</v>
+      </c>
+      <c r="CK13">
+        <v>0.47097063178235998</v>
+      </c>
+      <c r="CL13">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM13">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN13">
+        <v>1.1360528937291634</v>
+      </c>
+      <c r="CO13">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP13">
+        <v>-0.66725266485555412</v>
+      </c>
+      <c r="CQ13">
+        <v>0.89410299939287308</v>
+      </c>
+      <c r="CR13">
+        <v>1.9171179726529446</v>
+      </c>
+      <c r="CS13">
+        <v>-0.15392284145831966</v>
+      </c>
+      <c r="CT13">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU13">
+        <v>0.6839636754216013</v>
+      </c>
+      <c r="CV13">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW13">
+        <v>-0.77228652290087374</v>
+      </c>
+      <c r="CX13">
+        <v>0.30135285011177593</v>
+      </c>
+      <c r="CY13">
+        <v>-0.41015656898350722</v>
+      </c>
+      <c r="CZ13">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA13">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
         <v>34404</v>
       </c>
@@ -19094,8 +20443,104 @@
       <c r="AQ14" s="8">
         <v>3.1619673789918701</v>
       </c>
+      <c r="BV14">
+        <v>-0.26274048394814525</v>
+      </c>
+      <c r="BW14">
+        <v>-0.90095578264682408</v>
+      </c>
+      <c r="BX14">
+        <v>-0.45784075510152766</v>
+      </c>
+      <c r="BY14">
+        <v>-0.33202671316100596</v>
+      </c>
+      <c r="BZ14">
+        <v>0.83782921839865998</v>
+      </c>
+      <c r="CA14">
+        <v>-0.70503145982336624</v>
+      </c>
+      <c r="CB14">
+        <v>0.32847428380577903</v>
+      </c>
+      <c r="CC14">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD14">
+        <v>1.6645098916191787</v>
+      </c>
+      <c r="CE14">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF14">
+        <v>0.32324536608723275</v>
+      </c>
+      <c r="CG14">
+        <v>1.4108099146889403</v>
+      </c>
+      <c r="CH14">
+        <v>-0.24764999394695403</v>
+      </c>
+      <c r="CI14">
+        <v>4.0039568155833223</v>
+      </c>
+      <c r="CJ14">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK14">
+        <v>1.3849837177211717</v>
+      </c>
+      <c r="CL14">
+        <v>-0.1899155360538716</v>
+      </c>
+      <c r="CM14">
+        <v>3.0577104990392665</v>
+      </c>
+      <c r="CN14">
+        <v>-0.47012595670676688</v>
+      </c>
+      <c r="CO14">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP14">
+        <v>1.0813599742628277</v>
+      </c>
+      <c r="CQ14">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR14">
+        <v>-0.49729166910745376</v>
+      </c>
+      <c r="CS14">
+        <v>1.4819022104184094</v>
+      </c>
+      <c r="CT14">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU14">
+        <v>-1.8042915022511599</v>
+      </c>
+      <c r="CV14">
+        <v>-8.4222060086247538E-2</v>
+      </c>
+      <c r="CW14">
+        <v>2.7868065251715701E-2</v>
+      </c>
+      <c r="CX14">
+        <v>-0.82528122767418399</v>
+      </c>
+      <c r="CY14">
+        <v>-0.40814279923652086</v>
+      </c>
+      <c r="CZ14">
+        <v>-0.43181008952410355</v>
+      </c>
+      <c r="DA14">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>34266</v>
       </c>
@@ -19317,8 +20762,104 @@
       <c r="BU15">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV15">
+        <v>-0.5616593270549376</v>
+      </c>
+      <c r="BW15">
+        <v>1.0242020281549251</v>
+      </c>
+      <c r="BX15">
+        <v>-0.66413566782127587</v>
+      </c>
+      <c r="BY15">
+        <v>-0.32166551966703127</v>
+      </c>
+      <c r="BZ15">
+        <v>-0.14767630319478148</v>
+      </c>
+      <c r="CA15">
+        <v>-0.18620809374345482</v>
+      </c>
+      <c r="CB15">
+        <v>-8.4434399967446533E-2</v>
+      </c>
+      <c r="CC15">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD15">
+        <v>0.13024824907554663</v>
+      </c>
+      <c r="CE15">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF15">
+        <v>2.5689500146932698</v>
+      </c>
+      <c r="CG15">
+        <v>1.7002068202661589</v>
+      </c>
+      <c r="CH15">
+        <v>0.91034759206345783</v>
+      </c>
+      <c r="CI15">
+        <v>-0.28189692776168035</v>
+      </c>
+      <c r="CJ15">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK15">
+        <v>-0.74771348280272232</v>
+      </c>
+      <c r="CL15">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM15">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN15">
+        <v>0.22245769832904472</v>
+      </c>
+      <c r="CO15">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP15">
+        <v>-0.52419516319930626</v>
+      </c>
+      <c r="CQ15">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR15">
+        <v>1.8215255658233951</v>
+      </c>
+      <c r="CS15">
+        <v>-0.60401643833843477</v>
+      </c>
+      <c r="CT15">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU15">
+        <v>-1.6876337982333016</v>
+      </c>
+      <c r="CV15">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW15">
+        <v>-0.34628082317231174</v>
+      </c>
+      <c r="CX15">
+        <v>0.45609775655131879</v>
+      </c>
+      <c r="CY15">
+        <v>5.2968117874250188E-2</v>
+      </c>
+      <c r="CZ15">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA15">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>34477</v>
       </c>
@@ -19540,8 +21081,104 @@
       <c r="BU16">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV16">
+        <v>0.26972535277623028</v>
+      </c>
+      <c r="BW16">
+        <v>1.2763284516473168</v>
+      </c>
+      <c r="BX16">
+        <v>-0.4848888982065071</v>
+      </c>
+      <c r="BY16">
+        <v>-0.22320588397540045</v>
+      </c>
+      <c r="BZ16">
+        <v>-1.4371357545677823</v>
+      </c>
+      <c r="CA16">
+        <v>-0.48368751073184474</v>
+      </c>
+      <c r="CB16">
+        <v>-0.2408531942659268</v>
+      </c>
+      <c r="CC16">
+        <v>0.92303313842514512</v>
+      </c>
+      <c r="CD16">
+        <v>-0.14563772114668172</v>
+      </c>
+      <c r="CE16">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF16">
+        <v>-0.69752947418823863</v>
+      </c>
+      <c r="CG16">
+        <v>-0.90436532992880814</v>
+      </c>
+      <c r="CH16">
+        <v>0.1422879686892051</v>
+      </c>
+      <c r="CI16">
+        <v>-0.37373665083335894</v>
+      </c>
+      <c r="CJ16">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK16">
+        <v>-0.71724637993809526</v>
+      </c>
+      <c r="CL16">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM16">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN16">
+        <v>-0.51445089123803545</v>
+      </c>
+      <c r="CO16">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP16">
+        <v>-0.67640691724214941</v>
+      </c>
+      <c r="CQ16">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR16">
+        <v>-0.15768146378789238</v>
+      </c>
+      <c r="CS16">
+        <v>0.31811975925489833</v>
+      </c>
+      <c r="CT16">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU16">
+        <v>-1.8928439954461318</v>
+      </c>
+      <c r="CV16">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW16">
+        <v>0.83794331482896289</v>
+      </c>
+      <c r="CX16">
+        <v>-0.82528122767418399</v>
+      </c>
+      <c r="CY16">
+        <v>3.1256468392295558</v>
+      </c>
+      <c r="CZ16">
+        <v>9.0094922557621984E-2</v>
+      </c>
+      <c r="DA16">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>34527</v>
       </c>
@@ -19763,8 +21400,104 @@
       <c r="BU17">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV17">
+        <v>-4.1451898764529461E-2</v>
+      </c>
+      <c r="BW17">
+        <v>-0.30075789497550154</v>
+      </c>
+      <c r="BX17">
+        <v>0.48273745558655096</v>
+      </c>
+      <c r="BY17">
+        <v>1.2787588863450821</v>
+      </c>
+      <c r="BZ17">
+        <v>3.1891618424915481E-2</v>
+      </c>
+      <c r="CA17">
+        <v>-0.21292721021500979</v>
+      </c>
+      <c r="CB17">
+        <v>1.0310025848981381</v>
+      </c>
+      <c r="CC17">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD17">
+        <v>-0.13458550130064548</v>
+      </c>
+      <c r="CE17">
+        <v>-0.21925403795962017</v>
+      </c>
+      <c r="CF17">
+        <v>-0.49337450613314437</v>
+      </c>
+      <c r="CG17">
+        <v>-0.90436532992880814</v>
+      </c>
+      <c r="CH17">
+        <v>1.4775300831705984</v>
+      </c>
+      <c r="CI17">
+        <v>1.5855107746957853</v>
+      </c>
+      <c r="CJ17">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK17">
+        <v>-0.6867792770734682</v>
+      </c>
+      <c r="CL17">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM17">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN17">
+        <v>9.8184681188076602E-3</v>
+      </c>
+      <c r="CO17">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP17">
+        <v>0.26506267470074957</v>
+      </c>
+      <c r="CQ17">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR17">
+        <v>-0.47520449576657575</v>
+      </c>
+      <c r="CS17">
+        <v>-0.60401643833843477</v>
+      </c>
+      <c r="CT17">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU17">
+        <v>0.44628904986664819</v>
+      </c>
+      <c r="CV17">
+        <v>1.4303232669213803</v>
+      </c>
+      <c r="CW17">
+        <v>-0.17135238160335758</v>
+      </c>
+      <c r="CX17">
+        <v>-0.82528122767418399</v>
+      </c>
+      <c r="CY17">
+        <v>0.94061047700991018</v>
+      </c>
+      <c r="CZ17">
+        <v>-0.33552355017464325</v>
+      </c>
+      <c r="DA17">
+        <v>3.2921764835925238</v>
+      </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A18" s="26">
         <v>34691</v>
       </c>
@@ -19986,8 +21719,104 @@
       <c r="BU18">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV18">
+        <v>-0.62849806730890212</v>
+      </c>
+      <c r="BW18">
+        <v>-0.26109784231298416</v>
+      </c>
+      <c r="BX18">
+        <v>3.2319826522720376</v>
+      </c>
+      <c r="BY18">
+        <v>-0.53416986810378897</v>
+      </c>
+      <c r="BZ18">
+        <v>-1.298302932598344</v>
+      </c>
+      <c r="CA18">
+        <v>-1.0546309336516271</v>
+      </c>
+      <c r="CB18">
+        <v>-0.86358642002195218</v>
+      </c>
+      <c r="CC18">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD18">
+        <v>1.5991498538895041</v>
+      </c>
+      <c r="CE18">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF18">
+        <v>-0.49337450613314437</v>
+      </c>
+      <c r="CG18">
+        <v>-0.32557151877437102</v>
+      </c>
+      <c r="CH18">
+        <v>4.9234591241994997E-4</v>
+      </c>
+      <c r="CI18">
+        <v>-0.37373665083335894</v>
+      </c>
+      <c r="CJ18">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK18">
+        <v>-0.8391147913966035</v>
+      </c>
+      <c r="CL18">
+        <v>-0.6042767056259547</v>
+      </c>
+      <c r="CM18">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN18">
+        <v>-0.46885284365586133</v>
+      </c>
+      <c r="CO18">
+        <v>0.87384940537761435</v>
+      </c>
+      <c r="CP18">
+        <v>-1.9509543315795408</v>
+      </c>
+      <c r="CQ18">
+        <v>1.0550227657814331</v>
+      </c>
+      <c r="CR18">
+        <v>3.392354227851075E-2</v>
+      </c>
+      <c r="CS18">
+        <v>0.64123233162820648</v>
+      </c>
+      <c r="CT18">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU18">
+        <v>0.33107540086715409</v>
+      </c>
+      <c r="CV18">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW18">
+        <v>1.6883342940379358</v>
+      </c>
+      <c r="CX18">
+        <v>0.18878625919337044</v>
+      </c>
+      <c r="CY18">
+        <v>-0.36104068447161741</v>
+      </c>
+      <c r="CZ18">
+        <v>1.3991130422834102</v>
+      </c>
+      <c r="DA18">
+        <v>8.1017700792262712E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>34376</v>
       </c>
@@ -20209,8 +22038,104 @@
       <c r="BU19">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV19">
+        <v>-0.17137112896820964</v>
+      </c>
+      <c r="BW19">
+        <v>1.2887445397150554</v>
+      </c>
+      <c r="BX19">
+        <v>-0.46312611611854249</v>
+      </c>
+      <c r="BY19">
+        <v>-0.40758839656195317</v>
+      </c>
+      <c r="BZ19">
+        <v>-0.61224511870988652</v>
+      </c>
+      <c r="CA19">
+        <v>-0.39744883218124388</v>
+      </c>
+      <c r="CB19">
+        <v>-0.67795288253877883</v>
+      </c>
+      <c r="CC19">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD19">
+        <v>-0.23836425232322406</v>
+      </c>
+      <c r="CE19">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF19">
+        <v>-0.69752947418823863</v>
+      </c>
+      <c r="CG19">
+        <v>-0.90436532992880814</v>
+      </c>
+      <c r="CH19">
+        <v>-1.1575052400979919</v>
+      </c>
+      <c r="CI19">
+        <v>-0.3431234098094661</v>
+      </c>
+      <c r="CJ19">
+        <v>-0.16397368636858478</v>
+      </c>
+      <c r="CK19">
+        <v>-0.6867792770734682</v>
+      </c>
+      <c r="CL19">
+        <v>-0.1899155360538716</v>
+      </c>
+      <c r="CM19">
+        <v>0.30577104990392678</v>
+      </c>
+      <c r="CN19">
+        <v>-0.51445089123803545</v>
+      </c>
+      <c r="CO19">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP19">
+        <v>-0.15435082839826716</v>
+      </c>
+      <c r="CQ19">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR19">
+        <v>-0.83533555654342018</v>
+      </c>
+      <c r="CS19">
+        <v>-0.60401643833843477</v>
+      </c>
+      <c r="CT19">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU19">
+        <v>0.64130756727368898</v>
+      </c>
+      <c r="CV19">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW19">
+        <v>-0.48190177173360277</v>
+      </c>
+      <c r="CX19">
+        <v>-0.82528122767418399</v>
+      </c>
+      <c r="CY19">
+        <v>5.5852837310284953E-2</v>
+      </c>
+      <c r="CZ19">
+        <v>0.93905359722935278</v>
+      </c>
+      <c r="DA19">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
         <v>34412</v>
       </c>
@@ -20342,8 +22267,104 @@
       <c r="AQ20" s="8">
         <v>1.9403346708366001</v>
       </c>
+      <c r="BV20">
+        <v>0.1085232689858663</v>
+      </c>
+      <c r="BW20">
+        <v>-0.53636483898764031</v>
+      </c>
+      <c r="BX20">
+        <v>-0.47712822717897657</v>
+      </c>
+      <c r="BY20">
+        <v>6.0612721105604443E-2</v>
+      </c>
+      <c r="BZ20">
+        <v>1.0609751587341367</v>
+      </c>
+      <c r="CA20">
+        <v>-0.51831082948812368</v>
+      </c>
+      <c r="CB20">
+        <v>-0.87398780710382462</v>
+      </c>
+      <c r="CC20">
+        <v>-0.1008624716477447</v>
+      </c>
+      <c r="CD20">
+        <v>-0.56300928478985701</v>
+      </c>
+      <c r="CE20">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF20">
+        <v>-0.69752947418823863</v>
+      </c>
+      <c r="CG20">
+        <v>-0.90436532992880814</v>
+      </c>
+      <c r="CH20">
+        <v>1.5011626869667292</v>
+      </c>
+      <c r="CI20">
+        <v>1.4324445695763208</v>
+      </c>
+      <c r="CJ20">
+        <v>-0.16397368636858478</v>
+      </c>
+      <c r="CK20">
+        <v>-0.77818058566734938</v>
+      </c>
+      <c r="CL20">
+        <v>1.881890311806544</v>
+      </c>
+      <c r="CM20">
+        <v>1.2230841996157067</v>
+      </c>
+      <c r="CN20">
+        <v>-0.51445089123803545</v>
+      </c>
+      <c r="CO20">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP20">
+        <v>1.4230453597211845</v>
+      </c>
+      <c r="CQ20">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR20">
+        <v>-0.90808579868700101</v>
+      </c>
+      <c r="CS20">
+        <v>-0.60401643833843477</v>
+      </c>
+      <c r="CT20">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU20">
+        <v>-0.38044901569818534</v>
+      </c>
+      <c r="CV20">
+        <v>2.4849564360134924</v>
+      </c>
+      <c r="CW20">
+        <v>-1.3531418336028334</v>
+      </c>
+      <c r="CX20">
+        <v>-0.48292204270848565</v>
+      </c>
+      <c r="CY20">
+        <v>-0.49283031838769614</v>
+      </c>
+      <c r="CZ20">
+        <v>-0.39949280858845287</v>
+      </c>
+      <c r="DA20">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A21" s="27">
         <v>34680</v>
       </c>
@@ -20565,8 +22586,104 @@
       <c r="BU21">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV21">
+        <v>-0.34181444441343906</v>
+      </c>
+      <c r="BW21">
+        <v>0.77119402081254407</v>
+      </c>
+      <c r="BX21">
+        <v>-0.5390977009499508</v>
+      </c>
+      <c r="BY21">
+        <v>2.4444559262456922</v>
+      </c>
+      <c r="BZ21">
+        <v>-0.52903306794775884</v>
+      </c>
+      <c r="CA21">
+        <v>-6.9239445112650358E-2</v>
+      </c>
+      <c r="CB21">
+        <v>2.1203682944625957</v>
+      </c>
+      <c r="CC21">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD21">
+        <v>-0.44591946734660987</v>
+      </c>
+      <c r="CE21">
+        <v>-0.47353830265511992</v>
+      </c>
+      <c r="CF21">
+        <v>0.73155530219742126</v>
+      </c>
+      <c r="CG21">
+        <v>1.9896037258433776</v>
+      </c>
+      <c r="CH21">
+        <v>-0.7911998812579637</v>
+      </c>
+      <c r="CI21">
+        <v>-0.25128368673778745</v>
+      </c>
+      <c r="CJ21">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK21">
+        <v>2.5122665237123729</v>
+      </c>
+      <c r="CL21">
+        <v>1.881890311806544</v>
+      </c>
+      <c r="CM21">
+        <v>0.30577104990392678</v>
+      </c>
+      <c r="CN21">
+        <v>-0.3405942499850097</v>
+      </c>
+      <c r="CO21">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP21">
+        <v>0.69756782057093936</v>
+      </c>
+      <c r="CQ21">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR21">
+        <v>0.36714456973931459</v>
+      </c>
+      <c r="CS21">
+        <v>2.4497909122664083</v>
+      </c>
+      <c r="CT21">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU21">
+        <v>-2.1431415979084103</v>
+      </c>
+      <c r="CV21">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW21">
+        <v>2.6239507906084625</v>
+      </c>
+      <c r="CX21">
+        <v>-0.1362983494859096</v>
+      </c>
+      <c r="CY21">
+        <v>-0.37802199502037104</v>
+      </c>
+      <c r="CZ21">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA21">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>34352</v>
       </c>
@@ -20788,8 +22905,104 @@
       <c r="BU22">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV22">
+        <v>0.82436932446398792</v>
+      </c>
+      <c r="BW22">
+        <v>0.4302364875859333</v>
+      </c>
+      <c r="BX22">
+        <v>0.32940161736687223</v>
+      </c>
+      <c r="BY22">
+        <v>-0.63931314419429841</v>
+      </c>
+      <c r="BZ22">
+        <v>-0.60303338042297949</v>
+      </c>
+      <c r="CA22">
+        <v>-0.9604880841827288</v>
+      </c>
+      <c r="CB22">
+        <v>-0.99637389966801149</v>
+      </c>
+      <c r="CC22">
+        <v>-0.32360154146496078</v>
+      </c>
+      <c r="CD22">
+        <v>-0.56300928478985701</v>
+      </c>
+      <c r="CE22">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF22">
+        <v>1.5481751744177985</v>
+      </c>
+      <c r="CG22">
+        <v>1.1214130091117218</v>
+      </c>
+      <c r="CH22">
+        <v>3.1436286507978242</v>
+      </c>
+      <c r="CI22">
+        <v>-0.28189692776168035</v>
+      </c>
+      <c r="CJ22">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK22">
+        <v>-0.26023983696868935</v>
+      </c>
+      <c r="CL22">
+        <v>1.467529142234461</v>
+      </c>
+      <c r="CM22">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN22">
+        <v>-0.40604869528168086</v>
+      </c>
+      <c r="CO22">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP22">
+        <v>0.12796374726980783</v>
+      </c>
+      <c r="CQ22">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR22">
+        <v>-0.70467631283540577</v>
+      </c>
+      <c r="CS22">
+        <v>-0.60401643833843477</v>
+      </c>
+      <c r="CT22">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU22">
+        <v>-1.7613632919711033</v>
+      </c>
+      <c r="CV22">
+        <v>0.99827306074123989</v>
+      </c>
+      <c r="CW22">
+        <v>-0.73160937971706286</v>
+      </c>
+      <c r="CX22">
+        <v>2.9273543884136668</v>
+      </c>
+      <c r="CY22">
+        <v>-0.50586087253434786</v>
+      </c>
+      <c r="CZ22">
+        <v>-0.44209132365523329</v>
+      </c>
+      <c r="DA22">
+        <v>-0.19480258295469272</v>
+      </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>34577</v>
       </c>
@@ -21011,8 +23224,105 @@
       <c r="BU23">
         <v>-0.31167360172583408</v>
       </c>
+      <c r="BV23">
+        <v>-0.323738791943044</v>
+      </c>
+      <c r="BW23">
+        <v>0.66294757778836955</v>
+      </c>
+      <c r="BX23">
+        <v>1.9794427607825666</v>
+      </c>
+      <c r="BY23">
+        <v>1.4898694888642681</v>
+      </c>
+      <c r="BZ23">
+        <v>-1.7242381684756847</v>
+      </c>
+      <c r="CA23">
+        <v>-0.94975986826525582</v>
+      </c>
+      <c r="CB23">
+        <v>-0.53464272033714</v>
+      </c>
+      <c r="CC23">
+        <v>1.3961163239106662</v>
+      </c>
+      <c r="CD23">
+        <v>-0.56300928478985701</v>
+      </c>
+      <c r="CE23">
+        <v>-0.57590049836268353</v>
+      </c>
+      <c r="CF23">
+        <v>0.11909039803213844</v>
+      </c>
+      <c r="CG23">
+        <v>0.54261919795728464</v>
+      </c>
+      <c r="CH23">
+        <v>-0.64940425848117855</v>
+      </c>
+      <c r="CI23">
+        <v>-0.37373665083335894</v>
+      </c>
+      <c r="CJ23">
+        <v>-0.34701408045444693</v>
+      </c>
+      <c r="CK23">
+        <v>-0.19930563123943526</v>
+      </c>
+      <c r="CL23">
+        <v>0.63880680309029469</v>
+      </c>
+      <c r="CM23">
+        <v>-0.61154209980785312</v>
+      </c>
+      <c r="CN23">
+        <v>-6.0630835240311758E-2</v>
+      </c>
+      <c r="CO23">
+        <v>-0.2941256098549177</v>
+      </c>
+      <c r="CP23">
+        <v>-0.85875960272640961</v>
+      </c>
+      <c r="CQ23">
+        <v>-0.5756738816971092</v>
+      </c>
+      <c r="CR23">
+        <v>0.30451944961548433</v>
+      </c>
+      <c r="CS23">
+        <v>-0.60401643833843477</v>
+      </c>
+      <c r="CT23">
+        <v>-0.35456991179585656</v>
+      </c>
+      <c r="CU23">
+        <v>0.59070301978570516</v>
+      </c>
+      <c r="CV23">
+        <v>-0.63634990739121589</v>
+      </c>
+      <c r="CW23">
+        <v>-0.17542629723982356</v>
+      </c>
+      <c r="CX23">
+        <v>-0.82528122767418399</v>
+      </c>
+      <c r="CY23">
+        <v>2.8138947422411453</v>
+      </c>
+      <c r="CZ23">
+        <v>-0.22733464336670853</v>
+      </c>
+      <c r="DA23">
+        <v>-0.37847177742383664</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>